--- a/Documentation/final/Daywise Execution Plan - Copy.xlsx
+++ b/Documentation/final/Daywise Execution Plan - Copy.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeIMPL\ProjectGladiator\Documentation\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7520819-7980-41A1-8D35-1712A824BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daywise Plan" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Day 1</t>
   </si>
@@ -110,31 +110,6 @@
   </si>
   <si>
     <t>Create API and test using Postman</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">USER- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>useraccountdetails,useraccountsummary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,userstatements, balance enquiry</t>
-    </r>
   </si>
   <si>
     <t>Includenewbeneficiary</t>
@@ -223,12 +198,27 @@
   <si>
     <t>Remove beneficiary</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>frontEND</t>
+  </si>
+  <si>
+    <t>USER- useraccountdetails,userstatements, balance enquiry</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,142 +251,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,35 +278,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,263 +595,328 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="75.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15"/>
-      <c r="B4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="9"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
